--- a/sample-data/sample_DKA急性期.xlsx
+++ b/sample-data/sample_DKA急性期.xlsx
@@ -402,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1" xml:space="preserve">
@@ -712,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -844,9 +844,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -865,10 +865,10 @@
         <v>2025-02-01</v>
       </c>
       <c r="B2" t="str">
-        <v>入院</v>
+        <v>口渇</v>
       </c>
       <c r="C2" t="str">
-        <v>10歳男児、口渇・多尿・嘔吐・意識障害でER搬送。血糖580、pH7.05</v>
+        <v>著明な口渇、水分を頻回に要求</v>
       </c>
     </row>
     <row r="3">
@@ -876,10 +876,10 @@
         <v>2025-02-01</v>
       </c>
       <c r="B3" t="str">
-        <v>診断</v>
+        <v>多尿</v>
       </c>
       <c r="C3" t="str">
-        <v>1型糖尿病、重症DKA（pH&lt;7.1）と診断。PICU入室</v>
+        <v>頻尿、夜間尿増加の訴え</v>
       </c>
     </row>
     <row r="4">
@@ -887,10 +887,10 @@
         <v>2025-02-01</v>
       </c>
       <c r="B4" t="str">
-        <v>治療開始</v>
+        <v>嘔吐</v>
       </c>
       <c r="C4" t="str">
-        <v>生食ボーラス後、インスリン持続静注開始（0.1U/kg/hr）</v>
+        <v>頻回の嘔吐、経口摂取不可</v>
       </c>
     </row>
     <row r="5">
@@ -898,37 +898,103 @@
         <v>2025-02-01</v>
       </c>
       <c r="B5" t="str">
-        <v>改善</v>
+        <v>意識障害</v>
       </c>
       <c r="C5" t="str">
-        <v>アシドーシス改善傾向、意識清明に</v>
+        <v>GCS E3V4M5、傾眠傾向</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025-02-02</v>
+        <v>2025-02-01</v>
       </c>
       <c r="B6" t="str">
-        <v>治療変更</v>
+        <v>脱水</v>
       </c>
       <c r="C6" t="str">
-        <v>インスリン皮下注射へ移行、経口摂取開始</v>
+        <v>皮膚ツルゴール低下、口唇乾燥著明</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>2025-02-01</v>
+      </c>
+      <c r="B7" t="str">
+        <v>頻呼吸</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Kussmaul呼吸、RR 32/分</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2025-02-01</v>
+      </c>
+      <c r="B8" t="str">
+        <v>腹痛</v>
+      </c>
+      <c r="C8" t="str">
+        <v>心窩部痛の訴え</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2025-02-01</v>
+      </c>
+      <c r="B9" t="str">
+        <v>高血糖</v>
+      </c>
+      <c r="C9" t="str">
+        <v>血糖580mg/dL</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2025-02-02</v>
+      </c>
+      <c r="B10" t="str">
+        <v>意識障害</v>
+      </c>
+      <c r="C10" t="str">
+        <v>GCS E4V5M6、意識清明に改善</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2025-02-02</v>
+      </c>
+      <c r="B11" t="str">
+        <v>高血糖</v>
+      </c>
+      <c r="C11" t="str">
+        <v>血糖165mg/dL、改善傾向</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2025-02-02</v>
+      </c>
+      <c r="B12" t="str">
+        <v>口渇</v>
+      </c>
+      <c r="C12" t="str">
+        <v>軽度改善</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
         <v>2025-02-03</v>
       </c>
-      <c r="B7" t="str">
-        <v>回復</v>
-      </c>
-      <c r="C7" t="str">
-        <v>DKA離脱、一般病棟転棟。糖尿病教育開始</v>
+      <c r="B13" t="str">
+        <v>高血糖</v>
+      </c>
+      <c r="C13" t="str">
+        <v>血糖125mg/dL、正常化傾向</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -937,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
